--- a/tut05/output/0401EE33.xlsx
+++ b/tut05/output/0401EE33.xlsx
@@ -541,25 +541,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.489795918367347</v>
+        <v>4.49</v>
       </c>
       <c r="C6" t="n">
-        <v>5.068181818181818</v>
+        <v>5.07</v>
       </c>
       <c r="D6" t="n">
-        <v>4.565217391304348</v>
+        <v>4.57</v>
       </c>
       <c r="E6" t="n">
-        <v>5.065217391304348</v>
+        <v>5.07</v>
       </c>
       <c r="F6" t="n">
-        <v>2.153846153846154</v>
+        <v>2.15</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.230769230769231</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -597,25 +597,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.489795918367347</v>
+        <v>4.49</v>
       </c>
       <c r="C8" t="n">
-        <v>4.763440860215054</v>
+        <v>4.76</v>
       </c>
       <c r="D8" t="n">
-        <v>4.697841726618705</v>
+        <v>4.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4.789189189189189</v>
+        <v>4.79</v>
       </c>
       <c r="F8" t="n">
-        <v>4.330357142857143</v>
+        <v>4.33</v>
       </c>
       <c r="G8" t="n">
-        <v>3.674242424242424</v>
+        <v>3.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35973597359736</v>
+        <v>3.36</v>
       </c>
     </row>
   </sheetData>
